--- a/data/pheno/generated_pheno.xlsx
+++ b/data/pheno/generated_pheno.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2826,10 +2826,10 @@
         <v>40683</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>40730</v>
+        <v>40733</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>40744</v>
+        <v>40747</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>40794</v>
@@ -2841,10 +2841,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K63" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L63" t="n">
         <v>167</v>
@@ -2940,10 +2940,10 @@
         <v>41799</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>41843</v>
+        <v>41845</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>41857</v>
+        <v>41859</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>41900</v>
@@ -2955,10 +2955,10 @@
         <v>72</v>
       </c>
       <c r="J66" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K66" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L66" t="n">
         <v>181</v>
@@ -2978,10 +2978,10 @@
         <v>42159</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>42218</v>
+        <v>42219</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>42262</v>
@@ -2993,10 +2993,10 @@
         <v>48</v>
       </c>
       <c r="J67" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K67" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L67" t="n">
         <v>160</v>
@@ -3016,10 +3016,10 @@
         <v>42533</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>42578</v>
+        <v>42579</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>42635</v>
@@ -3031,10 +3031,10 @@
         <v>63</v>
       </c>
       <c r="J68" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K68" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L68" t="n">
         <v>177</v>
@@ -3054,10 +3054,10 @@
         <v>42884</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>42930</v>
+        <v>42931</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>42944</v>
+        <v>42945</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>42989</v>
@@ -3069,10 +3069,10 @@
         <v>58</v>
       </c>
       <c r="J69" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K69" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L69" t="n">
         <v>173</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" s="2" t="n">
-        <v>43314</v>
+        <v>43317</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>43360</v>
@@ -3105,10 +3105,10 @@
         <v>48</v>
       </c>
       <c r="J70" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K70" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L70" t="n">
         <v>167</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" s="2" t="n">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>44083</v>
@@ -3177,10 +3177,10 @@
         <v>53</v>
       </c>
       <c r="J72" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K72" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L72" t="n">
         <v>174</v>
@@ -3191,7 +3191,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44279</v>
+        <v>44276</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>44340.13235294117</v>
@@ -3201,25 +3201,25 @@
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" s="2" t="n">
-        <v>44414</v>
+        <v>44416</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>44486</v>
+        <v>44479</v>
       </c>
       <c r="I73" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J73" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K73" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L73" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
@@ -3227,35 +3227,35 @@
         <v>2022</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44692.13235294117</v>
+        <v>44697.13235294117</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44702</v>
+        <v>44707</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" s="2" t="n">
-        <v>44769</v>
+        <v>44772</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44805</v>
+        <v>44810</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>44832</v>
+        <v>44828</v>
       </c>
       <c r="I74" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J74" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K74" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L74" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
